--- a/_data/ni/ni9798/individueel_eindstand_dworp_123_9798.xlsx
+++ b/_data/ni/ni9798/individueel_eindstand_dworp_123_9798.xlsx
@@ -643,9 +643,6 @@
     <t>D'Hollander Stijn</t>
   </si>
   <si>
-    <t>186 Olen 3</t>
-  </si>
-  <si>
     <t>203 Fous du Roy 2</t>
   </si>
   <si>
@@ -698,6 +695,9 @@
   </si>
   <si>
     <t>Debontridder Godfried</t>
+  </si>
+  <si>
+    <t>186 Ons Schaakgenoegen Kempen 3</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1960,7 @@
         <v>95826</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="18">
         <v>1833</v>
@@ -3848,7 +3848,7 @@
         <v>54020</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="18">
         <v>2021</v>
@@ -4119,7 +4119,7 @@
         <v>27791</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="18">
         <v>1545</v>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -5209,7 +5209,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -5360,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="41">
         <v>2</v>
@@ -6814,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
@@ -6965,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="41">
         <v>0.5</v>
@@ -7267,7 +7267,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="42">
-        <f t="shared" ref="O32:O43" si="32">SUM(C32:N32)</f>
+        <f t="shared" ref="O32:O42" si="32">SUM(C32:N32)</f>
         <v>28</v>
       </c>
       <c r="P32" s="43">
@@ -8312,7 +8312,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="43">
-        <f t="shared" ref="Q32:Q43" si="33">COUNT(C32:N32)</f>
+        <f t="shared" ref="Q32:Q42" si="33">COUNT(C32:N32)</f>
         <v>10</v>
       </c>
       <c r="R32" s="52"/>
@@ -8457,7 +8457,7 @@
         <v>27</v>
       </c>
       <c r="P33" s="43">
-        <f t="shared" ref="P33:P43" si="34">SUM(S33:AD33)*2</f>
+        <f t="shared" ref="P33:P42" si="34">SUM(S33:AD33)*2</f>
         <v>15</v>
       </c>
       <c r="Q33" s="43">
@@ -8714,7 +8714,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C35" s="41">
         <v>1.5</v>
@@ -9757,7 +9757,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="41">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16618,7 +16618,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16702,7 +16702,7 @@
         <v>59722</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="18">
         <v>1825</v>
@@ -16734,7 +16734,7 @@
         <v>64629</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="18">
         <v>1727</v>
@@ -16973,7 +16973,7 @@
         <v>28169</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="18">
         <v>1369</v>
@@ -17455,7 +17455,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17999,7 +17999,7 @@
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
@@ -18032,7 +18032,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18180,7 +18180,7 @@
         <v>70017</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="18">
         <v>1695</v>
@@ -18271,7 +18271,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18478,7 +18478,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -19684,7 +19684,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20007,7 +20007,7 @@
         <v>89435</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="18">
         <v>1625</v>
@@ -20071,7 +20071,7 @@
         <v>64882</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="18">
         <v>1543</v>
@@ -20182,7 +20182,7 @@
         <v>57151</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="18">
         <v>2009</v>
@@ -20759,7 +20759,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20966,7 +20966,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J21" s="1"/>
     </row>
